--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2504.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2504.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.925623597431855</v>
+        <v>0.252669095993042</v>
       </c>
       <c r="B1">
-        <v>4.879548769605647</v>
+        <v>2.487767457962036</v>
       </c>
       <c r="C1">
-        <v>2.786657970570157</v>
+        <v>3.509603261947632</v>
       </c>
       <c r="D1">
-        <v>2.610010179701552</v>
+        <v>3.651207208633423</v>
       </c>
       <c r="E1">
-        <v>3.408174128981958</v>
+        <v>0.8329172730445862</v>
       </c>
     </row>
   </sheetData>
